--- a/individual_results/avey/137.xlsx
+++ b/individual_results/avey/137.xlsx
@@ -555,7 +555,7 @@
         <v>0.75</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
         <v>0.6</v>
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0.6666666666666666</v>
@@ -609,13 +609,13 @@
         <v>1</v>
       </c>
       <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -640,7 +640,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -682,13 +682,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V3" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -701,7 +701,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="D4" t="n">
         <v>0.7499999999999999</v>
@@ -712,7 +712,9 @@
       <c r="F4" t="n">
         <v>0.8</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H4" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -753,12 +755,14 @@
         <v>0.8</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="V4" t="n">
         <v>0.8</v>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -770,7 +774,7 @@
         <v>0.9375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="D5" t="n">
         <v>0.8823529411764706</v>
@@ -781,7 +785,9 @@
       <c r="F5" t="n">
         <v>0.7142857142857142</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0.3846153846153846</v>
+      </c>
       <c r="H5" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -822,12 +828,14 @@
         <v>0.7142857142857142</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="V5" t="n">
         <v>0.7142857142857142</v>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>0.3571428571428571</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -839,7 +847,7 @@
         <v>0.9721212198129313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9467676761267002</v>
+        <v>0.9879538239787089</v>
       </c>
       <c r="D6" t="n">
         <v>0.8428282648809379</v>
@@ -851,7 +859,7 @@
         <v>0.9467676761267002</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1064646477465997</v>
       </c>
       <c r="H6" t="n">
         <v>0.8124242481930318</v>
@@ -893,13 +901,13 @@
         <v>0.8124242481930318</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7452525342261976</v>
+        <v>0.8124242481930318</v>
       </c>
       <c r="V6" t="n">
         <v>0.5766666455144387</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.1064646477465997</v>
       </c>
     </row>
     <row r="7">

--- a/individual_results/avey/137.xlsx
+++ b/individual_results/avey/137.xlsx
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W2" t="n">
         <v>0.5</v>
@@ -685,7 +685,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W3" t="n">
         <v>0.3333333333333333</v>
@@ -758,7 +758,7 @@
         <v>0.8</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W4" t="n">
         <v>0.4</v>
@@ -831,7 +831,7 @@
         <v>0.7142857142857142</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="W5" t="n">
         <v>0.3571428571428571</v>
@@ -904,7 +904,7 @@
         <v>0.8124242481930318</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5766666455144387</v>
+        <v>0.1064646477465997</v>
       </c>
       <c r="W6" t="n">
         <v>0.1064646477465997</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -1193,9 +1193,7 @@
       <c r="U10" t="n">
         <v>1</v>
       </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
